--- a/makeMyTripAutomation/HackathonOutputData.xlsx
+++ b/makeMyTripAutomation/HackathonOutputData.xlsx
@@ -59,14 +59,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="E3"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="3">
-      <c r="E3" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/makeMyTripAutomation/HackathonOutputData.xlsx
+++ b/makeMyTripAutomation/HackathonOutputData.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>NEW</t>
+    <t>4</t>
   </si>
 </sst>
 </file>

--- a/makeMyTripAutomation/HackathonOutputData.xlsx
+++ b/makeMyTripAutomation/HackathonOutputData.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>4</t>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
